--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - EU.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - EU.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="73">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 countries</t>
@@ -232,7 +232,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:44:54</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:23:49</t>
   </si>
 </sst>
 </file>
@@ -1347,13 +1347,15 @@
     <col min="17" max="17" style="7" width="12.7109375" collapsed="true"/>
     <col min="14" max="15" style="7" width="12.7109375" collapsed="true"/>
     <col min="16" max="16" style="7" width="12.75" collapsed="true" customWidth="true"/>
-    <col min="3" max="12" style="7" width="12.7109375" collapsed="true"/>
+    <col min="10" max="12" style="7" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" style="7" width="18.72265625" collapsed="true" customWidth="true"/>
+    <col min="3" max="8" style="7" width="12.7109375" collapsed="true"/>
     <col min="25" max="25" style="7" width="18.72265625" collapsed="true" customWidth="true"/>
-    <col min="13" max="13" style="7" width="18.72265625" collapsed="true" customWidth="true"/>
+    <col min="9" max="9" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="18" max="18" style="7" width="13.5703125" collapsed="false" customWidth="true"/>
     <col min="1" max="1" style="7" width="12.7109375" collapsed="false"/>
     <col min="4" max="4" width="8.8984375" customWidth="true"/>
-    <col min="9" max="9" width="8.8984375" customWidth="true"/>
+    <col min="9" max="9" width="9.99609375" customWidth="true"/>
     <col min="12" max="12" width="8.8984375" customWidth="true"/>
     <col min="18" max="18" width="9.99609375" customWidth="true"/>
     <col min="19" max="19" width="8.8984375" customWidth="true"/>
@@ -46777,82 +46779,82 @@
         <v>35</v>
       </c>
       <c r="D544" t="n" s="10">
-        <v>3951768.0</v>
+        <v>3953885.0</v>
       </c>
       <c r="E544" t="n" s="10">
-        <v>374291.0</v>
+        <v>375956.0</v>
       </c>
       <c r="F544" t="n" s="10">
-        <v>1673256.0</v>
+        <v>1668055.0</v>
       </c>
       <c r="G544" t="n" s="10">
-        <v>178285.0</v>
+        <v>178291.0</v>
       </c>
       <c r="H544" t="n" s="10">
-        <v>979311.0</v>
+        <v>977089.0</v>
       </c>
       <c r="I544" t="n" s="10">
-        <v>8417978.0</v>
+        <v>8430041.0</v>
       </c>
       <c r="J544" t="n" s="10">
-        <v>627611.0</v>
+        <v>627427.0</v>
       </c>
       <c r="K544" t="n" s="10">
-        <v>648373.0</v>
+        <v>648123.0</v>
       </c>
       <c r="L544" t="n" s="10">
-        <v>6684738.0</v>
+        <v>6698465.0</v>
       </c>
       <c r="M544" t="n" s="10">
-        <v>333062.0</v>
+        <v>332325.0</v>
       </c>
       <c r="N544" t="n" s="10">
-        <v>168253.0</v>
+        <v>167771.0</v>
       </c>
       <c r="O544" t="n" s="10">
-        <v>343262.0</v>
+        <v>342517.0</v>
       </c>
       <c r="P544" t="n" s="10">
-        <v>568184.0</v>
+        <v>567093.0</v>
       </c>
       <c r="Q544" t="n" s="10">
-        <v>106151.0</v>
+        <v>106127.0</v>
       </c>
       <c r="R544" t="n" s="10">
-        <v>8178626.0</v>
+        <v>8200075.0</v>
       </c>
       <c r="S544" t="n" s="10">
-        <v>6068574.0</v>
+        <v>6059189.0</v>
       </c>
       <c r="T544" t="n" s="10">
-        <v>6400443.0</v>
+        <v>6402659.0</v>
       </c>
       <c r="U544" t="n" s="10">
-        <v>917902.0</v>
+        <v>916155.0</v>
       </c>
       <c r="V544" t="n" s="10">
-        <v>1560879.0</v>
+        <v>1558359.0</v>
       </c>
       <c r="W544" t="n" s="10">
-        <v>1997793.0</v>
+        <v>1979504.0</v>
       </c>
       <c r="X544" t="n" s="10">
-        <v>1177729.0</v>
+        <v>1175245.0</v>
       </c>
       <c r="Y544" t="n" s="10">
-        <v>494649.0</v>
+        <v>494156.0</v>
       </c>
       <c r="Z544" t="n" s="10">
-        <v>3637069.0</v>
+        <v>3637267.0</v>
       </c>
       <c r="AA544" t="n" s="10">
-        <v>3632560.0</v>
+        <v>3630989.0</v>
       </c>
       <c r="AB544" t="n" s="10">
-        <v>2444032.0</v>
+        <v>2439195.0</v>
       </c>
       <c r="AC544" t="n" s="10">
-        <v>91767.0</v>
+        <v>91602.0</v>
       </c>
     </row>
     <row r="545">
@@ -46863,82 +46865,82 @@
         <v>35</v>
       </c>
       <c r="D545" t="n" s="10">
-        <v>4493225.0</v>
+        <v>4569443.0</v>
       </c>
       <c r="E545" t="n" s="10">
-        <v>436139.0</v>
+        <v>436921.0</v>
       </c>
       <c r="F545" t="n" s="10">
-        <v>1031981.0</v>
+        <v>1030011.0</v>
       </c>
       <c r="G545" t="n" s="10">
-        <v>73470.0</v>
+        <v>73080.0</v>
       </c>
       <c r="H545" t="n" s="10">
-        <v>713176.0</v>
+        <v>712300.0</v>
       </c>
       <c r="I545" t="n" s="10">
-        <v>5234488.0</v>
+        <v>5226200.0</v>
       </c>
       <c r="J545" t="n" s="10">
-        <v>261738.0</v>
+        <v>261701.0</v>
       </c>
       <c r="K545" t="n" s="10">
-        <v>1608324.0</v>
+        <v>1608545.0</v>
       </c>
       <c r="L545" t="n" s="10">
-        <v>5749833.0</v>
+        <v>5746382.0</v>
       </c>
       <c r="M545" t="n" s="10">
-        <v>180821.0</v>
+        <v>181048.0</v>
       </c>
       <c r="N545" t="n" s="10">
-        <v>91709.0</v>
+        <v>91365.0</v>
       </c>
       <c r="O545" t="n" s="10">
-        <v>212788.0</v>
+        <v>212131.0</v>
       </c>
       <c r="P545" t="n" s="10">
-        <v>296759.0</v>
+        <v>296733.0</v>
       </c>
       <c r="Q545" t="n" s="10">
-        <v>45182.0</v>
+        <v>44957.0</v>
       </c>
       <c r="R545" t="n" s="10">
-        <v>8608709.0</v>
+        <v>8525847.0</v>
       </c>
       <c r="S545" t="n" s="10">
-        <v>4142778.0</v>
+        <v>4135717.0</v>
       </c>
       <c r="T545" t="n" s="10">
-        <v>5484338.0</v>
+        <v>5480647.0</v>
       </c>
       <c r="U545" t="n" s="10">
-        <v>667440.0</v>
+        <v>667625.0</v>
       </c>
       <c r="V545" t="n" s="10">
-        <v>1203012.0</v>
+        <v>1199081.0</v>
       </c>
       <c r="W545" t="n" s="10">
-        <v>1323317.0</v>
+        <v>1319721.0</v>
       </c>
       <c r="X545" t="n" s="10">
-        <v>1196352.0</v>
+        <v>1194365.0</v>
       </c>
       <c r="Y545" t="n" s="10">
-        <v>507471.0</v>
+        <v>506917.0</v>
       </c>
       <c r="Z545" t="n" s="10">
-        <v>2834887.0</v>
+        <v>2829955.0</v>
       </c>
       <c r="AA545" t="n" s="10">
-        <v>3859995.0</v>
+        <v>3875723.0</v>
       </c>
       <c r="AB545" t="n" s="10">
-        <v>2501583.0</v>
+        <v>2502326.0</v>
       </c>
       <c r="AC545" t="n" s="10">
-        <v>38918.0</v>
+        <v>38877.0</v>
       </c>
     </row>
     <row r="546">
@@ -46952,82 +46954,82 @@
         <v>35</v>
       </c>
       <c r="D546" t="n" s="10">
-        <v>3844226.0</v>
+        <v>3864407.0</v>
       </c>
       <c r="E546" t="n" s="10">
-        <v>380073.0</v>
+        <v>380709.0</v>
       </c>
       <c r="F546" t="n" s="10">
-        <v>1617418.0</v>
+        <v>1616614.0</v>
       </c>
       <c r="G546" t="n" s="10">
-        <v>187279.0</v>
+        <v>188213.0</v>
       </c>
       <c r="H546" t="n" s="10">
-        <v>892246.0</v>
+        <v>891238.0</v>
       </c>
       <c r="I546" t="n" s="10">
-        <v>7119817.0</v>
+        <v>7112355.0</v>
       </c>
       <c r="J546" t="n" s="10">
-        <v>564361.0</v>
+        <v>562875.0</v>
       </c>
       <c r="K546" t="n" s="10">
-        <v>559529.0</v>
+        <v>558299.0</v>
       </c>
       <c r="L546" t="n" s="10">
-        <v>4720624.0</v>
+        <v>4713158.0</v>
       </c>
       <c r="M546" t="n" s="10">
-        <v>321233.0</v>
+        <v>320091.0</v>
       </c>
       <c r="N546" t="n" s="10">
-        <v>161298.0</v>
+        <v>161100.0</v>
       </c>
       <c r="O546" t="n" s="10">
-        <v>365479.0</v>
+        <v>366000.0</v>
       </c>
       <c r="P546" t="n" s="10">
-        <v>498516.0</v>
+        <v>497740.0</v>
       </c>
       <c r="Q546" t="n" s="10">
-        <v>41462.0</v>
+        <v>41273.0</v>
       </c>
       <c r="R546" t="n" s="10">
-        <v>7898385.0</v>
+        <v>7910852.0</v>
       </c>
       <c r="S546" t="n" s="10">
-        <v>5567809.0</v>
+        <v>5571112.0</v>
       </c>
       <c r="T546" t="n" s="10">
-        <v>6167466.0</v>
+        <v>6173180.0</v>
       </c>
       <c r="U546" t="n" s="10">
-        <v>673469.0</v>
+        <v>672094.0</v>
       </c>
       <c r="V546" t="n" s="10">
-        <v>1498459.0</v>
+        <v>1500138.0</v>
       </c>
       <c r="W546" t="n" s="10">
-        <v>2029260.0</v>
+        <v>2025161.0</v>
       </c>
       <c r="X546" t="n" s="10">
-        <v>1083853.0</v>
+        <v>1083376.0</v>
       </c>
       <c r="Y546" t="n" s="10">
-        <v>462056.0</v>
+        <v>462235.0</v>
       </c>
       <c r="Z546" t="n" s="10">
-        <v>3041937.0</v>
+        <v>3034657.0</v>
       </c>
       <c r="AA546" t="n" s="10">
-        <v>3660523.0</v>
+        <v>3646757.0</v>
       </c>
       <c r="AB546" t="n" s="10">
-        <v>2329966.0</v>
+        <v>2334364.0</v>
       </c>
       <c r="AC546" t="n" s="10">
-        <v>55441.0</v>
+        <v>55481.0</v>
       </c>
     </row>
     <row r="547">
@@ -47038,82 +47040,82 @@
         <v>35</v>
       </c>
       <c r="D547" t="n" s="10">
-        <v>4213504.0</v>
+        <v>4300500.0</v>
       </c>
       <c r="E547" t="n" s="10">
-        <v>405339.0</v>
+        <v>407176.0</v>
       </c>
       <c r="F547" t="n" s="10">
-        <v>968027.0</v>
+        <v>971099.0</v>
       </c>
       <c r="G547" t="n" s="10">
-        <v>69600.0</v>
+        <v>69855.0</v>
       </c>
       <c r="H547" t="n" s="10">
-        <v>648173.0</v>
+        <v>645770.0</v>
       </c>
       <c r="I547" t="n" s="10">
-        <v>4445089.0</v>
+        <v>4433924.0</v>
       </c>
       <c r="J547" t="n" s="10">
-        <v>217090.0</v>
+        <v>217065.0</v>
       </c>
       <c r="K547" t="n" s="10">
-        <v>1912111.0</v>
+        <v>1890065.0</v>
       </c>
       <c r="L547" t="n" s="10">
-        <v>4545634.0</v>
+        <v>4531677.0</v>
       </c>
       <c r="M547" t="n" s="10">
-        <v>142647.0</v>
+        <v>142083.0</v>
       </c>
       <c r="N547" t="n" s="10">
-        <v>101256.0</v>
+        <v>102266.0</v>
       </c>
       <c r="O547" t="n" s="10">
-        <v>249915.0</v>
+        <v>288337.0</v>
       </c>
       <c r="P547" t="n" s="10">
-        <v>286676.0</v>
+        <v>285525.0</v>
       </c>
       <c r="Q547" t="n" s="10">
-        <v>34332.0</v>
+        <v>34257.0</v>
       </c>
       <c r="R547" t="n" s="10">
-        <v>8160666.0</v>
+        <v>8069927.0</v>
       </c>
       <c r="S547" t="n" s="10">
-        <v>3505167.0</v>
+        <v>3494213.0</v>
       </c>
       <c r="T547" t="n" s="10">
-        <v>5338726.0</v>
+        <v>5320853.0</v>
       </c>
       <c r="U547" t="n" s="10">
-        <v>459844.0</v>
+        <v>459722.0</v>
       </c>
       <c r="V547" t="n" s="10">
-        <v>1002049.0</v>
+        <v>1009581.0</v>
       </c>
       <c r="W547" t="n" s="10">
-        <v>1162859.0</v>
+        <v>1168931.0</v>
       </c>
       <c r="X547" t="n" s="10">
-        <v>962478.0</v>
+        <v>957792.0</v>
       </c>
       <c r="Y547" t="n" s="10">
-        <v>460145.0</v>
+        <v>457465.0</v>
       </c>
       <c r="Z547" t="n" s="10">
-        <v>2169374.0</v>
+        <v>2177586.0</v>
       </c>
       <c r="AA547" t="n" s="10">
-        <v>3552338.0</v>
+        <v>3578203.0</v>
       </c>
       <c r="AB547" t="n" s="10">
-        <v>1986766.0</v>
+        <v>1981420.0</v>
       </c>
       <c r="AC547" t="n" s="10">
-        <v>9335.0</v>
+        <v>9225.0</v>
       </c>
     </row>
     <row r="548">
@@ -47127,82 +47129,82 @@
         <v>35</v>
       </c>
       <c r="D548" t="n" s="10">
-        <v>4384118.0</v>
+        <v>4374585.0</v>
       </c>
       <c r="E548" t="n" s="10">
-        <v>411660.0</v>
+        <v>413156.0</v>
       </c>
       <c r="F548" t="n" s="10">
-        <v>1889640.0</v>
+        <v>1879435.0</v>
       </c>
       <c r="G548" t="n" s="10">
-        <v>196441.0</v>
+        <v>197662.0</v>
       </c>
       <c r="H548" t="n" s="10">
-        <v>1064975.0</v>
+        <v>1057837.0</v>
       </c>
       <c r="I548" t="n" s="10">
-        <v>8710043.0</v>
+        <v>8678194.0</v>
       </c>
       <c r="J548" t="n" s="10">
-        <v>688676.0</v>
+        <v>684762.0</v>
       </c>
       <c r="K548" t="n" s="10">
-        <v>620364.0</v>
+        <v>617433.0</v>
       </c>
       <c r="L548" t="n" s="10">
-        <v>6574971.0</v>
+        <v>6566799.0</v>
       </c>
       <c r="M548" t="n" s="10">
-        <v>362271.0</v>
+        <v>360444.0</v>
       </c>
       <c r="N548" t="n" s="10">
-        <v>179652.0</v>
+        <v>179462.0</v>
       </c>
       <c r="O548" t="n" s="10">
-        <v>380777.0</v>
+        <v>390923.0</v>
       </c>
       <c r="P548" t="n" s="10">
-        <v>593185.0</v>
+        <v>591161.0</v>
       </c>
       <c r="Q548" t="n" s="10">
-        <v>44359.0</v>
+        <v>43952.0</v>
       </c>
       <c r="R548" t="n" s="10">
-        <v>8857352.0</v>
+        <v>8898118.0</v>
       </c>
       <c r="S548" t="n" s="10">
-        <v>6375508.0</v>
+        <v>6401122.0</v>
       </c>
       <c r="T548" t="n" s="10">
-        <v>6667528.0</v>
+        <v>6691465.0</v>
       </c>
       <c r="U548" t="n" s="10">
-        <v>810124.0</v>
+        <v>806337.0</v>
       </c>
       <c r="V548" t="n" s="10">
-        <v>1582226.0</v>
+        <v>1575745.0</v>
       </c>
       <c r="W548" t="n" s="10">
-        <v>2384448.0</v>
+        <v>2371194.0</v>
       </c>
       <c r="X548" t="n" s="10">
-        <v>1202857.0</v>
+        <v>1196315.0</v>
       </c>
       <c r="Y548" t="n" s="10">
-        <v>596962.0</v>
+        <v>597154.0</v>
       </c>
       <c r="Z548" t="n" s="10">
-        <v>3668350.0</v>
+        <v>3700566.0</v>
       </c>
       <c r="AA548" t="n" s="10">
-        <v>3958556.0</v>
+        <v>3945817.0</v>
       </c>
       <c r="AB548" t="n" s="10">
-        <v>2472524.0</v>
+        <v>2460550.0</v>
       </c>
       <c r="AC548" t="n" s="10">
-        <v>48774.0</v>
+        <v>49607.0</v>
       </c>
     </row>
     <row r="549">
@@ -47213,82 +47215,82 @@
         <v>35</v>
       </c>
       <c r="D549" t="n" s="10">
-        <v>4388719.0</v>
+        <v>4462409.0</v>
       </c>
       <c r="E549" t="n" s="10">
-        <v>494246.0</v>
+        <v>492655.0</v>
       </c>
       <c r="F549" t="n" s="10">
-        <v>1142054.0</v>
+        <v>1141511.0</v>
       </c>
       <c r="G549" t="n" s="10">
-        <v>78606.0</v>
+        <v>78621.0</v>
       </c>
       <c r="H549" t="n" s="10">
-        <v>700151.0</v>
+        <v>691849.0</v>
       </c>
       <c r="I549" t="n" s="10">
-        <v>5279269.0</v>
+        <v>5255842.0</v>
       </c>
       <c r="J549" t="n" s="10">
-        <v>203453.0</v>
+        <v>202423.0</v>
       </c>
       <c r="K549" t="n" s="10">
-        <v>1731338.0</v>
+        <v>1706157.0</v>
       </c>
       <c r="L549" t="n" s="10">
-        <v>5500367.0</v>
+        <v>5479271.0</v>
       </c>
       <c r="M549" t="n" s="10">
-        <v>166776.0</v>
+        <v>166036.0</v>
       </c>
       <c r="N549" t="n" s="10">
-        <v>100812.0</v>
+        <v>101402.0</v>
       </c>
       <c r="O549" t="n" s="10">
-        <v>227783.0</v>
+        <v>232680.0</v>
       </c>
       <c r="P549" t="n" s="10">
-        <v>292497.0</v>
+        <v>290928.0</v>
       </c>
       <c r="Q549" t="n" s="10">
-        <v>32173.0</v>
+        <v>31334.0</v>
       </c>
       <c r="R549" t="n" s="10">
-        <v>8966249.0</v>
+        <v>8901746.0</v>
       </c>
       <c r="S549" t="n" s="10">
-        <v>4229394.0</v>
+        <v>4208872.0</v>
       </c>
       <c r="T549" t="n" s="10">
-        <v>5849622.0</v>
+        <v>5852005.0</v>
       </c>
       <c r="U549" t="n" s="10">
-        <v>622631.0</v>
+        <v>620434.0</v>
       </c>
       <c r="V549" t="n" s="10">
-        <v>1205069.0</v>
+        <v>1230335.0</v>
       </c>
       <c r="W549" t="n" s="10">
-        <v>1537432.0</v>
+        <v>1547944.0</v>
       </c>
       <c r="X549" t="n" s="10">
-        <v>1163938.0</v>
+        <v>1161016.0</v>
       </c>
       <c r="Y549" t="n" s="10">
-        <v>543477.0</v>
+        <v>536088.0</v>
       </c>
       <c r="Z549" t="n" s="10">
-        <v>2512189.0</v>
+        <v>2487959.0</v>
       </c>
       <c r="AA549" t="n" s="10">
-        <v>4174989.0</v>
+        <v>4188647.0</v>
       </c>
       <c r="AB549" t="n" s="10">
-        <v>2548121.0</v>
+        <v>2536868.0</v>
       </c>
       <c r="AC549" t="n" s="10">
-        <v>7937.0</v>
+        <v>7914.0</v>
       </c>
     </row>
     <row r="550">
@@ -47302,82 +47304,82 @@
         <v>35</v>
       </c>
       <c r="D550" t="n" s="10">
-        <v>4618228.0</v>
+        <v>4605773.0</v>
       </c>
       <c r="E550" t="n" s="10">
-        <v>408873.0</v>
+        <v>411079.0</v>
       </c>
       <c r="F550" t="n" s="10">
-        <v>1875568.0</v>
+        <v>1869660.0</v>
       </c>
       <c r="G550" t="n" s="10">
-        <v>202746.0</v>
+        <v>203131.0</v>
       </c>
       <c r="H550" t="n" s="10">
-        <v>1091208.0</v>
+        <v>1084182.0</v>
       </c>
       <c r="I550" t="n" s="10">
-        <v>8794184.0</v>
+        <v>8759284.0</v>
       </c>
       <c r="J550" t="n" s="10">
-        <v>579338.0</v>
+        <v>576523.0</v>
       </c>
       <c r="K550" t="n" s="10">
-        <v>659490.0</v>
+        <v>656828.0</v>
       </c>
       <c r="L550" t="n" s="10">
-        <v>7679384.0</v>
+        <v>7668163.0</v>
       </c>
       <c r="M550" t="n" s="10">
-        <v>351660.0</v>
+        <v>350673.0</v>
       </c>
       <c r="N550" t="n" s="10">
-        <v>182684.0</v>
+        <v>182484.0</v>
       </c>
       <c r="O550" t="n" s="10">
-        <v>402922.0</v>
+        <v>409192.0</v>
       </c>
       <c r="P550" t="n" s="10">
-        <v>640049.0</v>
+        <v>642159.0</v>
       </c>
       <c r="Q550" t="n" s="10">
-        <v>51835.0</v>
+        <v>51029.0</v>
       </c>
       <c r="R550" t="n" s="10">
-        <v>8753774.0</v>
+        <v>8764938.0</v>
       </c>
       <c r="S550" t="n" s="10">
-        <v>6440890.0</v>
+        <v>6452245.0</v>
       </c>
       <c r="T550" t="n" s="10">
-        <v>7022221.0</v>
+        <v>7080998.0</v>
       </c>
       <c r="U550" t="n" s="10">
-        <v>906543.0</v>
+        <v>900400.0</v>
       </c>
       <c r="V550" t="n" s="10">
-        <v>1562615.0</v>
+        <v>1553237.0</v>
       </c>
       <c r="W550" t="n" s="10">
-        <v>2352121.0</v>
+        <v>2335705.0</v>
       </c>
       <c r="X550" t="n" s="10">
-        <v>1259425.0</v>
+        <v>1252382.0</v>
       </c>
       <c r="Y550" t="n" s="10">
-        <v>543980.0</v>
+        <v>545060.0</v>
       </c>
       <c r="Z550" t="n" s="10">
-        <v>3654395.0</v>
+        <v>3679651.0</v>
       </c>
       <c r="AA550" t="n" s="10">
-        <v>4194371.0</v>
+        <v>4191121.0</v>
       </c>
       <c r="AB550" t="n" s="10">
-        <v>2513307.0</v>
+        <v>2500857.0</v>
       </c>
       <c r="AC550" t="n" s="10">
-        <v>52615.0</v>
+        <v>52118.0</v>
       </c>
     </row>
     <row r="551">
@@ -47388,82 +47390,82 @@
         <v>35</v>
       </c>
       <c r="D551" t="n" s="10">
-        <v>4595638.0</v>
+        <v>4682006.0</v>
       </c>
       <c r="E551" t="n" s="10">
-        <v>406301.0</v>
+        <v>406610.0</v>
       </c>
       <c r="F551" t="n" s="10">
-        <v>1160897.0</v>
+        <v>1159404.0</v>
       </c>
       <c r="G551" t="n" s="10">
-        <v>70423.0</v>
+        <v>74448.0</v>
       </c>
       <c r="H551" t="n" s="10">
-        <v>767104.0</v>
+        <v>761950.0</v>
       </c>
       <c r="I551" t="n" s="10">
-        <v>5714257.0</v>
+        <v>5692559.0</v>
       </c>
       <c r="J551" t="n" s="10">
-        <v>240553.0</v>
+        <v>243053.0</v>
       </c>
       <c r="K551" t="n" s="10">
-        <v>2010949.0</v>
+        <v>1970798.0</v>
       </c>
       <c r="L551" t="n" s="10">
-        <v>5821182.0</v>
+        <v>5839432.0</v>
       </c>
       <c r="M551" t="n" s="10">
-        <v>184203.0</v>
+        <v>183877.0</v>
       </c>
       <c r="N551" t="n" s="10">
-        <v>93383.0</v>
+        <v>96419.0</v>
       </c>
       <c r="O551" t="n" s="10">
-        <v>246343.0</v>
+        <v>260906.0</v>
       </c>
       <c r="P551" t="n" s="10">
-        <v>295390.0</v>
+        <v>293297.0</v>
       </c>
       <c r="Q551" t="n" s="10">
-        <v>39715.0</v>
+        <v>38868.0</v>
       </c>
       <c r="R551" t="n" s="10">
-        <v>1.0328363E7</v>
+        <v>1.0199375E7</v>
       </c>
       <c r="S551" t="n" s="10">
-        <v>4254455.0</v>
+        <v>4236821.0</v>
       </c>
       <c r="T551" t="n" s="10">
-        <v>6125895.0</v>
+        <v>6125361.0</v>
       </c>
       <c r="U551" t="n" s="10">
-        <v>624088.0</v>
+        <v>621348.0</v>
       </c>
       <c r="V551" t="n" s="10">
-        <v>1278194.0</v>
+        <v>1291561.0</v>
       </c>
       <c r="W551" t="n" s="10">
-        <v>1502443.0</v>
+        <v>1544912.0</v>
       </c>
       <c r="X551" t="n" s="10">
-        <v>1624145.0</v>
+        <v>1620846.0</v>
       </c>
       <c r="Y551" t="n" s="10">
-        <v>618697.0</v>
+        <v>610945.0</v>
       </c>
       <c r="Z551" t="n" s="10">
-        <v>2762254.0</v>
+        <v>2737785.0</v>
       </c>
       <c r="AA551" t="n" s="10">
-        <v>4456347.0</v>
+        <v>4466154.0</v>
       </c>
       <c r="AB551" t="n" s="10">
-        <v>2460386.0</v>
+        <v>2441816.0</v>
       </c>
       <c r="AC551" t="n" s="10">
-        <v>7162.0</v>
+        <v>6901.0</v>
       </c>
     </row>
     <row r="552">
@@ -47477,82 +47479,82 @@
         <v>35</v>
       </c>
       <c r="D552" t="n" s="10">
-        <v>4408800.0</v>
+        <v>4396888.0</v>
       </c>
       <c r="E552" t="n" s="10">
-        <v>423335.0</v>
+        <v>428965.0</v>
       </c>
       <c r="F552" t="n" s="10">
-        <v>1947777.0</v>
+        <v>1947482.0</v>
       </c>
       <c r="G552" t="n" s="10">
-        <v>203172.0</v>
+        <v>204540.0</v>
       </c>
       <c r="H552" t="n" s="10">
-        <v>1136685.0</v>
+        <v>1138170.0</v>
       </c>
       <c r="I552" t="n" s="10">
-        <v>9457626.0</v>
+        <v>9421562.0</v>
       </c>
       <c r="J552" t="n" s="10">
-        <v>690806.0</v>
+        <v>694751.0</v>
       </c>
       <c r="K552" t="n" s="10">
-        <v>685637.0</v>
+        <v>685687.0</v>
       </c>
       <c r="L552" t="n" s="10">
-        <v>6671031.0</v>
+        <v>6660946.0</v>
       </c>
       <c r="M552" t="n" s="10">
-        <v>364543.0</v>
+        <v>363330.0</v>
       </c>
       <c r="N552" t="n" s="10">
-        <v>179781.0</v>
+        <v>179553.0</v>
       </c>
       <c r="O552" t="n" s="10">
-        <v>400697.0</v>
+        <v>401049.0</v>
       </c>
       <c r="P552" t="n" s="10">
-        <v>679592.0</v>
+        <v>679955.0</v>
       </c>
       <c r="Q552" t="n" s="10">
-        <v>45024.0</v>
+        <v>43454.0</v>
       </c>
       <c r="R552" t="n" s="10">
-        <v>8924799.0</v>
+        <v>8873845.0</v>
       </c>
       <c r="S552" t="n" s="10">
-        <v>6761037.0</v>
+        <v>6747924.0</v>
       </c>
       <c r="T552" t="n" s="10">
-        <v>7008589.0</v>
+        <v>7085403.0</v>
       </c>
       <c r="U552" t="n" s="10">
-        <v>903954.0</v>
+        <v>912251.0</v>
       </c>
       <c r="V552" t="n" s="10">
-        <v>1633717.0</v>
+        <v>1631757.0</v>
       </c>
       <c r="W552" t="n" s="10">
-        <v>2468367.0</v>
+        <v>2470065.0</v>
       </c>
       <c r="X552" t="n" s="10">
-        <v>1413286.0</v>
+        <v>1406246.0</v>
       </c>
       <c r="Y552" t="n" s="10">
-        <v>559960.0</v>
+        <v>561890.0</v>
       </c>
       <c r="Z552" t="n" s="10">
-        <v>4026951.0</v>
+        <v>4060387.0</v>
       </c>
       <c r="AA552" t="n" s="10">
-        <v>4439464.0</v>
+        <v>4445355.0</v>
       </c>
       <c r="AB552" t="n" s="10">
-        <v>2627324.0</v>
+        <v>2623869.0</v>
       </c>
       <c r="AC552" t="n" s="10">
-        <v>54414.0</v>
+        <v>54597.0</v>
       </c>
     </row>
     <row r="553">
@@ -47563,82 +47565,82 @@
         <v>35</v>
       </c>
       <c r="D553" t="n" s="10">
-        <v>4935875.0</v>
+        <v>4984189.0</v>
       </c>
       <c r="E553" t="n" s="10">
-        <v>464128.0</v>
+        <v>460751.0</v>
       </c>
       <c r="F553" t="n" s="10">
-        <v>1248134.0</v>
+        <v>1251666.0</v>
       </c>
       <c r="G553" t="n" s="10">
-        <v>73051.0</v>
+        <v>80892.0</v>
       </c>
       <c r="H553" t="n" s="10">
-        <v>797647.0</v>
+        <v>786193.0</v>
       </c>
       <c r="I553" t="n" s="10">
-        <v>5764259.0</v>
+        <v>5740143.0</v>
       </c>
       <c r="J553" t="n" s="10">
-        <v>259263.0</v>
+        <v>259282.0</v>
       </c>
       <c r="K553" t="n" s="10">
-        <v>1656125.0</v>
+        <v>1634545.0</v>
       </c>
       <c r="L553" t="n" s="10">
-        <v>6031392.0</v>
+        <v>6108536.0</v>
       </c>
       <c r="M553" t="n" s="10">
-        <v>194919.0</v>
+        <v>196436.0</v>
       </c>
       <c r="N553" t="n" s="10">
-        <v>126021.0</v>
+        <v>126377.0</v>
       </c>
       <c r="O553" t="n" s="10">
-        <v>261422.0</v>
+        <v>258279.0</v>
       </c>
       <c r="P553" t="n" s="10">
-        <v>302452.0</v>
+        <v>298994.0</v>
       </c>
       <c r="Q553" t="n" s="10">
-        <v>31762.0</v>
+        <v>30362.0</v>
       </c>
       <c r="R553" t="n" s="10">
-        <v>1.0770349E7</v>
+        <v>1.0705749E7</v>
       </c>
       <c r="S553" t="n" s="10">
-        <v>4287578.0</v>
+        <v>4284337.0</v>
       </c>
       <c r="T553" t="n" s="10">
-        <v>6447462.0</v>
+        <v>6460597.0</v>
       </c>
       <c r="U553" t="n" s="10">
-        <v>700545.0</v>
+        <v>704196.0</v>
       </c>
       <c r="V553" t="n" s="10">
-        <v>1454171.0</v>
+        <v>1449974.0</v>
       </c>
       <c r="W553" t="n" s="10">
-        <v>1542703.0</v>
+        <v>1526190.0</v>
       </c>
       <c r="X553" t="n" s="10">
-        <v>1780564.0</v>
+        <v>1773254.0</v>
       </c>
       <c r="Y553" t="n" s="10">
-        <v>668076.0</v>
+        <v>663257.0</v>
       </c>
       <c r="Z553" t="n" s="10">
-        <v>3349961.0</v>
+        <v>3328755.0</v>
       </c>
       <c r="AA553" t="n" s="10">
-        <v>4760231.0</v>
+        <v>4708766.0</v>
       </c>
       <c r="AB553" t="n" s="10">
-        <v>2892397.0</v>
+        <v>2888854.0</v>
       </c>
       <c r="AC553" t="n" s="10">
-        <v>6462.0</v>
+        <v>6465.0</v>
       </c>
     </row>
     <row r="554">
@@ -47652,82 +47654,82 @@
         <v>35</v>
       </c>
       <c r="D554" t="n" s="10">
-        <v>4219506.0</v>
+        <v>4251758.0</v>
       </c>
       <c r="E554" t="n" s="10">
-        <v>347192.0</v>
+        <v>354186.0</v>
       </c>
       <c r="F554" t="n" s="10">
-        <v>1797350.0</v>
+        <v>1810414.0</v>
       </c>
       <c r="G554" t="n" s="10">
-        <v>167553.0</v>
+        <v>174030.0</v>
       </c>
       <c r="H554" t="n" s="10">
-        <v>1023409.0</v>
+        <v>1018326.0</v>
       </c>
       <c r="I554" t="n" s="10">
-        <v>8472205.0</v>
+        <v>8420816.0</v>
       </c>
       <c r="J554" t="n" s="10">
-        <v>586601.0</v>
+        <v>599855.0</v>
       </c>
       <c r="K554" t="n" s="10">
-        <v>625528.0</v>
+        <v>643819.0</v>
       </c>
       <c r="L554" t="n" s="10">
-        <v>6078589.0</v>
+        <v>6071770.0</v>
       </c>
       <c r="M554" t="n" s="10">
-        <v>332775.0</v>
+        <v>334797.0</v>
       </c>
       <c r="N554" t="n" s="10">
-        <v>175408.0</v>
+        <v>178814.0</v>
       </c>
       <c r="O554" t="n" s="10">
-        <v>382589.0</v>
+        <v>388361.0</v>
       </c>
       <c r="P554" t="n" s="10">
-        <v>638133.0</v>
+        <v>642082.0</v>
       </c>
       <c r="Q554" t="n" s="10">
-        <v>47416.0</v>
+        <v>44817.0</v>
       </c>
       <c r="R554" t="n" s="10">
-        <v>9643341.0</v>
+        <v>9658753.0</v>
       </c>
       <c r="S554" t="n" s="10">
-        <v>5927153.0</v>
+        <v>5928922.0</v>
       </c>
       <c r="T554" t="n" s="10">
-        <v>6810867.0</v>
+        <v>6829931.0</v>
       </c>
       <c r="U554" t="n" s="10">
-        <v>780385.0</v>
+        <v>784058.0</v>
       </c>
       <c r="V554" t="n" s="10">
-        <v>1424540.0</v>
+        <v>1425899.0</v>
       </c>
       <c r="W554" t="n" s="10">
-        <v>2215018.0</v>
+        <v>2190285.0</v>
       </c>
       <c r="X554" t="n" s="10">
-        <v>1192853.0</v>
+        <v>1169009.0</v>
       </c>
       <c r="Y554" t="n" s="10">
-        <v>474354.0</v>
+        <v>474953.0</v>
       </c>
       <c r="Z554" t="n" s="10">
-        <v>3496270.0</v>
+        <v>3513295.0</v>
       </c>
       <c r="AA554" t="n" s="10">
-        <v>3977475.0</v>
+        <v>3953352.0</v>
       </c>
       <c r="AB554" t="n" s="10">
-        <v>2362036.0</v>
+        <v>2332885.0</v>
       </c>
       <c r="AC554" t="n" s="10">
-        <v>57848.0</v>
+        <v>59012.0</v>
       </c>
     </row>
     <row r="555">
@@ -47738,82 +47740,82 @@
         <v>35</v>
       </c>
       <c r="D555" t="n" s="10">
-        <v>4409211.0</v>
+        <v>4433057.0</v>
       </c>
       <c r="E555" t="n" s="10">
-        <v>399913.0</v>
+        <v>393085.0</v>
       </c>
       <c r="F555" t="n" s="10">
-        <v>1184752.0</v>
+        <v>1188457.0</v>
       </c>
       <c r="G555" t="n" s="10">
-        <v>58572.0</v>
+        <v>63881.0</v>
       </c>
       <c r="H555" t="n" s="10">
-        <v>767734.0</v>
+        <v>764262.0</v>
       </c>
       <c r="I555" t="n" s="10">
-        <v>5470666.0</v>
+        <v>5397193.0</v>
       </c>
       <c r="J555" t="n" s="10">
-        <v>210521.0</v>
+        <v>210127.0</v>
       </c>
       <c r="K555" t="n" s="10">
-        <v>1610128.0</v>
+        <v>1619349.0</v>
       </c>
       <c r="L555" t="n" s="10">
-        <v>5470863.0</v>
+        <v>5485284.0</v>
       </c>
       <c r="M555" t="n" s="10">
-        <v>158908.0</v>
+        <v>159825.0</v>
       </c>
       <c r="N555" t="n" s="10">
-        <v>80166.0</v>
+        <v>79773.0</v>
       </c>
       <c r="O555" t="n" s="10">
-        <v>230742.0</v>
+        <v>258230.0</v>
       </c>
       <c r="P555" t="n" s="10">
-        <v>338582.0</v>
+        <v>330453.0</v>
       </c>
       <c r="Q555" t="n" s="10">
-        <v>34636.0</v>
+        <v>32327.0</v>
       </c>
       <c r="R555" t="n" s="10">
-        <v>1.0467216E7</v>
+        <v>1.0470888E7</v>
       </c>
       <c r="S555" t="n" s="10">
-        <v>4206072.0</v>
+        <v>4203129.0</v>
       </c>
       <c r="T555" t="n" s="10">
-        <v>6063268.0</v>
+        <v>6069360.0</v>
       </c>
       <c r="U555" t="n" s="10">
-        <v>580881.0</v>
+        <v>582380.0</v>
       </c>
       <c r="V555" t="n" s="10">
-        <v>1151050.0</v>
+        <v>1175452.0</v>
       </c>
       <c r="W555" t="n" s="10">
-        <v>1475188.0</v>
+        <v>1459355.0</v>
       </c>
       <c r="X555" t="n" s="10">
-        <v>1596851.0</v>
+        <v>1576399.0</v>
       </c>
       <c r="Y555" t="n" s="10">
-        <v>521002.0</v>
+        <v>510856.0</v>
       </c>
       <c r="Z555" t="n" s="10">
-        <v>3383774.0</v>
+        <v>3400361.0</v>
       </c>
       <c r="AA555" t="n" s="10">
-        <v>4380017.0</v>
+        <v>4298783.0</v>
       </c>
       <c r="AB555" t="n" s="10">
-        <v>2406231.0</v>
+        <v>2371758.0</v>
       </c>
       <c r="AC555" t="n" s="10">
-        <v>9848.0</v>
+        <v>9537.0</v>
       </c>
     </row>
     <row r="556" ht="50.6" customHeight="true">
@@ -47832,82 +47834,82 @@
         <v>35</v>
       </c>
       <c r="D557" t="n" s="10">
-        <v>4001226.0</v>
+        <v>3978492.0</v>
       </c>
       <c r="E557" t="n" s="10">
-        <v>353422.0</v>
+        <v>354523.0</v>
       </c>
       <c r="F557" t="n" s="10">
-        <v>1557467.0</v>
+        <v>1540538.0</v>
       </c>
       <c r="G557" t="n" s="10">
-        <v>157322.0</v>
+        <v>162908.0</v>
       </c>
       <c r="H557" t="n" s="10">
-        <v>918004.0</v>
+        <v>920100.0</v>
       </c>
       <c r="I557" t="n" s="10">
-        <v>8230914.0</v>
+        <v>8217142.0</v>
       </c>
       <c r="J557" t="n" s="10">
-        <v>577066.0</v>
+        <v>571588.0</v>
       </c>
       <c r="K557" t="n" s="10">
-        <v>651912.0</v>
+        <v>667460.0</v>
       </c>
       <c r="L557" t="n" s="10">
-        <v>5930916.0</v>
+        <v>5937341.0</v>
       </c>
       <c r="M557" t="n" s="10">
-        <v>301394.0</v>
+        <v>301960.0</v>
       </c>
       <c r="N557" t="n" s="10">
-        <v>160942.0</v>
+        <v>162230.0</v>
       </c>
       <c r="O557" t="n" s="10">
-        <v>303439.0</v>
+        <v>307144.0</v>
       </c>
       <c r="P557" t="n" s="10">
-        <v>604269.0</v>
+        <v>603249.0</v>
       </c>
       <c r="Q557" t="n" s="10">
-        <v>37273.0</v>
+        <v>35479.0</v>
       </c>
       <c r="R557" t="n" s="10">
-        <v>8054711.0</v>
+        <v>8045428.0</v>
       </c>
       <c r="S557" t="n" s="10">
-        <v>5681375.0</v>
+        <v>5755314.0</v>
       </c>
       <c r="T557" t="n" s="10">
-        <v>6086997.0</v>
+        <v>6054066.0</v>
       </c>
       <c r="U557" t="n" s="10">
-        <v>776706.0</v>
+        <v>804656.0</v>
       </c>
       <c r="V557" t="n" s="10">
-        <v>1464707.0</v>
+        <v>1460691.0</v>
       </c>
       <c r="W557" t="n" s="10">
-        <v>1982052.0</v>
+        <v>1955069.0</v>
       </c>
       <c r="X557" t="n" s="10">
-        <v>1156280.0</v>
+        <v>1156931.0</v>
       </c>
       <c r="Y557" t="n" s="10">
-        <v>467905.0</v>
+        <v>468584.0</v>
       </c>
       <c r="Z557" t="n" s="10">
-        <v>3626203.0</v>
+        <v>3579601.0</v>
       </c>
       <c r="AA557" t="n" s="10">
-        <v>3773680.0</v>
+        <v>3868291.0</v>
       </c>
       <c r="AB557" t="n" s="10">
-        <v>2106004.0</v>
+        <v>2065545.0</v>
       </c>
       <c r="AC557" t="n" s="10">
-        <v>70208.0</v>
+        <v>69749.0</v>
       </c>
     </row>
     <row r="558">
@@ -47918,82 +47920,82 @@
         <v>35</v>
       </c>
       <c r="D558" t="n" s="10">
-        <v>3947982.0</v>
+        <v>4013991.0</v>
       </c>
       <c r="E558" t="n" s="10">
-        <v>478080.0</v>
+        <v>469752.0</v>
       </c>
       <c r="F558" t="n" s="10">
-        <v>1041040.0</v>
+        <v>1022770.0</v>
       </c>
       <c r="G558" t="n" s="10">
-        <v>57844.0</v>
+        <v>60563.0</v>
       </c>
       <c r="H558" t="n" s="10">
-        <v>668558.0</v>
+        <v>660798.0</v>
       </c>
       <c r="I558" t="n" s="10">
-        <v>4947059.0</v>
+        <v>4904465.0</v>
       </c>
       <c r="J558" t="n" s="10">
-        <v>213453.0</v>
+        <v>214799.0</v>
       </c>
       <c r="K558" t="n" s="10">
-        <v>1830215.0</v>
+        <v>1741640.0</v>
       </c>
       <c r="L558" t="n" s="10">
-        <v>4647153.0</v>
+        <v>4615797.0</v>
       </c>
       <c r="M558" t="n" s="10">
-        <v>170309.0</v>
+        <v>173985.0</v>
       </c>
       <c r="N558" t="n" s="10">
-        <v>80075.0</v>
+        <v>83145.0</v>
       </c>
       <c r="O558" t="n" s="10">
-        <v>199641.0</v>
+        <v>205707.0</v>
       </c>
       <c r="P558" t="n" s="10">
-        <v>275521.0</v>
+        <v>273338.0</v>
       </c>
       <c r="Q558" t="n" s="10">
-        <v>31089.0</v>
+        <v>30832.0</v>
       </c>
       <c r="R558" t="n" s="10">
-        <v>9743024.0</v>
+        <v>9694274.0</v>
       </c>
       <c r="S558" t="n" s="10">
-        <v>3668852.0</v>
+        <v>3722717.0</v>
       </c>
       <c r="T558" t="n" s="10">
-        <v>5215106.0</v>
+        <v>5228688.0</v>
       </c>
       <c r="U558" t="n" s="10">
-        <v>561828.0</v>
+        <v>558717.0</v>
       </c>
       <c r="V558" t="n" s="10">
-        <v>1202606.0</v>
+        <v>1200564.0</v>
       </c>
       <c r="W558" t="n" s="10">
-        <v>1268202.0</v>
+        <v>1268407.0</v>
       </c>
       <c r="X558" t="n" s="10">
-        <v>1430996.0</v>
+        <v>1421358.0</v>
       </c>
       <c r="Y558" t="n" s="10">
-        <v>500877.0</v>
+        <v>493648.0</v>
       </c>
       <c r="Z558" t="n" s="10">
-        <v>2845309.0</v>
+        <v>2817331.0</v>
       </c>
       <c r="AA558" t="n" s="10">
-        <v>4127023.0</v>
+        <v>4001551.0</v>
       </c>
       <c r="AB558" t="n" s="10">
-        <v>2307416.0</v>
+        <v>2274195.0</v>
       </c>
       <c r="AC558" t="n" s="10">
-        <v>8533.0</v>
+        <v>9935.0</v>
       </c>
     </row>
     <row r="559">
@@ -48006,83 +48008,83 @@
       <c r="C559" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="F559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="H559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="J559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="K559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="L559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="M559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="N559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="O559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="P559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Q559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="S559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="T559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="U559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="W559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="X559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AB559" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AC559" t="s" s="10">
-        <v>70</v>
+      <c r="D559" t="n" s="10">
+        <v>4718011.0</v>
+      </c>
+      <c r="E559" t="n" s="10">
+        <v>386137.0</v>
+      </c>
+      <c r="F559" t="n" s="10">
+        <v>1848815.0</v>
+      </c>
+      <c r="G559" t="n" s="10">
+        <v>191818.0</v>
+      </c>
+      <c r="H559" t="n" s="10">
+        <v>1026410.0</v>
+      </c>
+      <c r="I559" t="n" s="10">
+        <v>9151653.0</v>
+      </c>
+      <c r="J559" t="n" s="10">
+        <v>586588.0</v>
+      </c>
+      <c r="K559" t="n" s="10">
+        <v>793575.0</v>
+      </c>
+      <c r="L559" t="n" s="10">
+        <v>7094737.0</v>
+      </c>
+      <c r="M559" t="n" s="10">
+        <v>365164.0</v>
+      </c>
+      <c r="N559" t="n" s="10">
+        <v>186332.0</v>
+      </c>
+      <c r="O559" t="n" s="10">
+        <v>407913.0</v>
+      </c>
+      <c r="P559" t="n" s="10">
+        <v>658419.0</v>
+      </c>
+      <c r="Q559" t="n" s="10">
+        <v>37536.0</v>
+      </c>
+      <c r="R559" t="n" s="10">
+        <v>9179520.0</v>
+      </c>
+      <c r="S559" t="n" s="10">
+        <v>6466789.0</v>
+      </c>
+      <c r="T559" t="n" s="10">
+        <v>7063683.0</v>
+      </c>
+      <c r="U559" t="n" s="10">
+        <v>862919.0</v>
+      </c>
+      <c r="V559" t="n" s="10">
+        <v>1577530.0</v>
+      </c>
+      <c r="W559" t="n" s="10">
+        <v>2381731.0</v>
+      </c>
+      <c r="X559" t="n" s="10">
+        <v>1381784.0</v>
+      </c>
+      <c r="Y559" t="n" s="10">
+        <v>559693.0</v>
+      </c>
+      <c r="Z559" t="n" s="10">
+        <v>3963757.0</v>
+      </c>
+      <c r="AA559" t="n" s="10">
+        <v>4410544.0</v>
+      </c>
+      <c r="AB559" t="n" s="10">
+        <v>2502534.0</v>
+      </c>
+      <c r="AC559" t="n" s="10">
+        <v>57681.0</v>
       </c>
     </row>
     <row r="560">
@@ -48092,83 +48094,83 @@
       <c r="C560" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="F560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="H560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="J560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="K560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="L560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="M560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="N560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="O560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="P560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Q560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="S560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="T560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="U560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="W560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="X560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AB560" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AC560" t="s" s="10">
-        <v>70</v>
+      <c r="D560" t="n" s="10">
+        <v>4435430.0</v>
+      </c>
+      <c r="E560" t="n" s="10">
+        <v>506361.0</v>
+      </c>
+      <c r="F560" t="n" s="10">
+        <v>1083581.0</v>
+      </c>
+      <c r="G560" t="n" s="10">
+        <v>67625.0</v>
+      </c>
+      <c r="H560" t="n" s="10">
+        <v>720680.0</v>
+      </c>
+      <c r="I560" t="n" s="10">
+        <v>5590355.0</v>
+      </c>
+      <c r="J560" t="n" s="10">
+        <v>219234.0</v>
+      </c>
+      <c r="K560" t="n" s="10">
+        <v>3036822.0</v>
+      </c>
+      <c r="L560" t="n" s="10">
+        <v>6002874.0</v>
+      </c>
+      <c r="M560" t="n" s="10">
+        <v>183185.0</v>
+      </c>
+      <c r="N560" t="n" s="10">
+        <v>91161.0</v>
+      </c>
+      <c r="O560" t="n" s="10">
+        <v>255864.0</v>
+      </c>
+      <c r="P560" t="n" s="10">
+        <v>324665.0</v>
+      </c>
+      <c r="Q560" t="n" s="10">
+        <v>33484.0</v>
+      </c>
+      <c r="R560" t="n" s="10">
+        <v>9572248.0</v>
+      </c>
+      <c r="S560" t="n" s="10">
+        <v>4434432.0</v>
+      </c>
+      <c r="T560" t="n" s="10">
+        <v>5975086.0</v>
+      </c>
+      <c r="U560" t="n" s="10">
+        <v>634411.0</v>
+      </c>
+      <c r="V560" t="n" s="10">
+        <v>1442752.0</v>
+      </c>
+      <c r="W560" t="n" s="10">
+        <v>1404006.0</v>
+      </c>
+      <c r="X560" t="n" s="10">
+        <v>1704895.0</v>
+      </c>
+      <c r="Y560" t="n" s="10">
+        <v>558820.0</v>
+      </c>
+      <c r="Z560" t="n" s="10">
+        <v>3422712.0</v>
+      </c>
+      <c r="AA560" t="n" s="10">
+        <v>4506198.0</v>
+      </c>
+      <c r="AB560" t="n" s="10">
+        <v>2806566.0</v>
+      </c>
+      <c r="AC560" t="n" s="10">
+        <v>70985.0</v>
       </c>
     </row>
     <row r="561">
@@ -48181,83 +48183,83 @@
       <c r="C561" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="F561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="H561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="J561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="K561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="L561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="M561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="N561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="O561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="P561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Q561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="S561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="T561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="U561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="W561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="X561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AB561" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AC561" t="s" s="10">
-        <v>70</v>
+      <c r="D561" t="n" s="10">
+        <v>4995799.0</v>
+      </c>
+      <c r="E561" t="n" s="10">
+        <v>447277.0</v>
+      </c>
+      <c r="F561" t="n" s="10">
+        <v>2088357.0</v>
+      </c>
+      <c r="G561" t="n" s="10">
+        <v>214159.0</v>
+      </c>
+      <c r="H561" t="n" s="10">
+        <v>1156819.0</v>
+      </c>
+      <c r="I561" t="n" s="10">
+        <v>1.0206315E7</v>
+      </c>
+      <c r="J561" t="n" s="10">
+        <v>783579.0</v>
+      </c>
+      <c r="K561" t="n" s="10">
+        <v>797228.0</v>
+      </c>
+      <c r="L561" t="n" s="10">
+        <v>7629929.0</v>
+      </c>
+      <c r="M561" t="n" s="10">
+        <v>414834.0</v>
+      </c>
+      <c r="N561" t="n" s="10">
+        <v>215190.0</v>
+      </c>
+      <c r="O561" t="n" s="10">
+        <v>395578.0</v>
+      </c>
+      <c r="P561" t="n" s="10">
+        <v>793516.0</v>
+      </c>
+      <c r="Q561" t="n" s="10">
+        <v>62187.0</v>
+      </c>
+      <c r="R561" t="n" s="10">
+        <v>9334990.0</v>
+      </c>
+      <c r="S561" t="n" s="10">
+        <v>7659587.0</v>
+      </c>
+      <c r="T561" t="n" s="10">
+        <v>8055042.0</v>
+      </c>
+      <c r="U561" t="n" s="10">
+        <v>989224.0</v>
+      </c>
+      <c r="V561" t="n" s="10">
+        <v>1767318.0</v>
+      </c>
+      <c r="W561" t="n" s="10">
+        <v>2569621.0</v>
+      </c>
+      <c r="X561" t="n" s="10">
+        <v>1490533.0</v>
+      </c>
+      <c r="Y561" t="n" s="10">
+        <v>621015.0</v>
+      </c>
+      <c r="Z561" t="n" s="10">
+        <v>4243184.0</v>
+      </c>
+      <c r="AA561" t="n" s="10">
+        <v>5122338.0</v>
+      </c>
+      <c r="AB561" t="n" s="10">
+        <v>2836518.0</v>
+      </c>
+      <c r="AC561" t="n" s="10">
+        <v>68960.0</v>
       </c>
     </row>
     <row r="562">
@@ -48267,83 +48269,83 @@
       <c r="C562" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="F562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="H562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="J562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="K562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="L562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="M562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="N562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="O562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="P562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Q562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="S562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="T562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="U562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="W562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="X562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AB562" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AC562" t="s" s="10">
-        <v>70</v>
+      <c r="D562" t="n" s="10">
+        <v>5092933.0</v>
+      </c>
+      <c r="E562" t="n" s="10">
+        <v>645918.0</v>
+      </c>
+      <c r="F562" t="n" s="10">
+        <v>1582011.0</v>
+      </c>
+      <c r="G562" t="n" s="10">
+        <v>84214.0</v>
+      </c>
+      <c r="H562" t="n" s="10">
+        <v>893317.0</v>
+      </c>
+      <c r="I562" t="n" s="10">
+        <v>6218321.0</v>
+      </c>
+      <c r="J562" t="n" s="10">
+        <v>266596.0</v>
+      </c>
+      <c r="K562" t="n" s="10">
+        <v>2604222.0</v>
+      </c>
+      <c r="L562" t="n" s="10">
+        <v>6469199.0</v>
+      </c>
+      <c r="M562" t="n" s="10">
+        <v>202898.0</v>
+      </c>
+      <c r="N562" t="n" s="10">
+        <v>103295.0</v>
+      </c>
+      <c r="O562" t="n" s="10">
+        <v>236156.0</v>
+      </c>
+      <c r="P562" t="n" s="10">
+        <v>370227.0</v>
+      </c>
+      <c r="Q562" t="n" s="10">
+        <v>44540.0</v>
+      </c>
+      <c r="R562" t="n" s="10">
+        <v>1.1201455E7</v>
+      </c>
+      <c r="S562" t="n" s="10">
+        <v>4919884.0</v>
+      </c>
+      <c r="T562" t="n" s="10">
+        <v>6414707.0</v>
+      </c>
+      <c r="U562" t="n" s="10">
+        <v>740659.0</v>
+      </c>
+      <c r="V562" t="n" s="10">
+        <v>1492588.0</v>
+      </c>
+      <c r="W562" t="n" s="10">
+        <v>1694600.0</v>
+      </c>
+      <c r="X562" t="n" s="10">
+        <v>1634215.0</v>
+      </c>
+      <c r="Y562" t="n" s="10">
+        <v>727330.0</v>
+      </c>
+      <c r="Z562" t="n" s="10">
+        <v>3337361.0</v>
+      </c>
+      <c r="AA562" t="n" s="10">
+        <v>4912266.0</v>
+      </c>
+      <c r="AB562" t="n" s="10">
+        <v>2769881.0</v>
+      </c>
+      <c r="AC562" t="n" s="10">
+        <v>31040.0</v>
       </c>
     </row>
     <row r="563">
@@ -48356,83 +48358,83 @@
       <c r="C563" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="F563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="H563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="J563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="K563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="L563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="M563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="N563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="O563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="P563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Q563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="S563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="T563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="U563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="W563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="X563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AB563" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AC563" t="s" s="10">
-        <v>70</v>
+      <c r="D563" t="n" s="10">
+        <v>4875478.0</v>
+      </c>
+      <c r="E563" t="n" s="10">
+        <v>407011.0</v>
+      </c>
+      <c r="F563" t="n" s="10">
+        <v>1901119.0</v>
+      </c>
+      <c r="G563" t="n" s="10">
+        <v>208803.0</v>
+      </c>
+      <c r="H563" t="n" s="10">
+        <v>1108321.0</v>
+      </c>
+      <c r="I563" t="n" s="10">
+        <v>9247295.0</v>
+      </c>
+      <c r="J563" t="n" s="10">
+        <v>540540.0</v>
+      </c>
+      <c r="K563" t="n" s="10">
+        <v>723729.0</v>
+      </c>
+      <c r="L563" t="n" s="10">
+        <v>6637739.0</v>
+      </c>
+      <c r="M563" t="n" s="10">
+        <v>396192.0</v>
+      </c>
+      <c r="N563" t="n" s="10">
+        <v>191752.0</v>
+      </c>
+      <c r="O563" t="n" s="10">
+        <v>374420.0</v>
+      </c>
+      <c r="P563" t="n" s="10">
+        <v>725782.0</v>
+      </c>
+      <c r="Q563" t="n" s="10">
+        <v>46866.0</v>
+      </c>
+      <c r="R563" t="n" s="10">
+        <v>8975349.0</v>
+      </c>
+      <c r="S563" t="n" s="10">
+        <v>7208392.0</v>
+      </c>
+      <c r="T563" t="n" s="10">
+        <v>7111495.0</v>
+      </c>
+      <c r="U563" t="n" s="10">
+        <v>918006.0</v>
+      </c>
+      <c r="V563" t="n" s="10">
+        <v>1538893.0</v>
+      </c>
+      <c r="W563" t="n" s="10">
+        <v>2240755.0</v>
+      </c>
+      <c r="X563" t="n" s="10">
+        <v>1309477.0</v>
+      </c>
+      <c r="Y563" t="n" s="10">
+        <v>552213.0</v>
+      </c>
+      <c r="Z563" t="n" s="10">
+        <v>3910042.0</v>
+      </c>
+      <c r="AA563" t="n" s="10">
+        <v>4398407.0</v>
+      </c>
+      <c r="AB563" t="n" s="10">
+        <v>2572900.0</v>
+      </c>
+      <c r="AC563" t="n" s="10">
+        <v>53416.0</v>
       </c>
     </row>
     <row r="564">
@@ -48442,83 +48444,83 @@
       <c r="C564" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="F564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="G564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="H564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="J564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="K564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="L564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="M564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="N564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="O564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="P564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Q564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="S564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="T564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="U564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="W564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="X564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AB564" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AC564" t="s" s="10">
-        <v>70</v>
+      <c r="D564" t="n" s="10">
+        <v>4558931.0</v>
+      </c>
+      <c r="E564" t="n" s="10">
+        <v>560329.0</v>
+      </c>
+      <c r="F564" t="n" s="10">
+        <v>1161438.0</v>
+      </c>
+      <c r="G564" t="n" s="10">
+        <v>70293.0</v>
+      </c>
+      <c r="H564" t="n" s="10">
+        <v>746919.0</v>
+      </c>
+      <c r="I564" t="n" s="10">
+        <v>5587595.0</v>
+      </c>
+      <c r="J564" t="n" s="10">
+        <v>240066.0</v>
+      </c>
+      <c r="K564" t="n" s="10">
+        <v>2633803.0</v>
+      </c>
+      <c r="L564" t="n" s="10">
+        <v>5843034.0</v>
+      </c>
+      <c r="M564" t="n" s="10">
+        <v>182415.0</v>
+      </c>
+      <c r="N564" t="n" s="10">
+        <v>96959.0</v>
+      </c>
+      <c r="O564" t="n" s="10">
+        <v>241267.0</v>
+      </c>
+      <c r="P564" t="n" s="10">
+        <v>373117.0</v>
+      </c>
+      <c r="Q564" t="n" s="10">
+        <v>42382.0</v>
+      </c>
+      <c r="R564" t="n" s="10">
+        <v>1.0111757E7</v>
+      </c>
+      <c r="S564" t="n" s="10">
+        <v>4763387.0</v>
+      </c>
+      <c r="T564" t="n" s="10">
+        <v>6088965.0</v>
+      </c>
+      <c r="U564" t="n" s="10">
+        <v>694188.0</v>
+      </c>
+      <c r="V564" t="n" s="10">
+        <v>1353458.0</v>
+      </c>
+      <c r="W564" t="n" s="10">
+        <v>1504848.0</v>
+      </c>
+      <c r="X564" t="n" s="10">
+        <v>1454887.0</v>
+      </c>
+      <c r="Y564" t="n" s="10">
+        <v>601571.0</v>
+      </c>
+      <c r="Z564" t="n" s="10">
+        <v>2990860.0</v>
+      </c>
+      <c r="AA564" t="n" s="10">
+        <v>4484703.0</v>
+      </c>
+      <c r="AB564" t="n" s="10">
+        <v>2670368.0</v>
+      </c>
+      <c r="AC564" t="n" s="10">
+        <v>8587.0</v>
       </c>
     </row>
     <row r="565">
@@ -49965,7 +49967,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:45:08&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:24:02&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - EU.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - EU.xlsx
@@ -232,7 +232,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:23:49</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:35:31</t>
   </si>
 </sst>
 </file>
@@ -49967,7 +49967,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:24:02&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:35:42&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>